--- a/2024 4 3/Lakeshore/Lakeshore.xlsx
+++ b/2024 4 3/Lakeshore/Lakeshore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRYAN\Documents\Measurement data\2024 4 3\Lakeshore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415B9F86-73C4-4331-9FA5-D077EE7CC535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1460661-B1AB-4C33-851C-2A890318A9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0mm" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,7 +819,7 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>10</v>
